--- a/output/StructureDefinition-NatlDir-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDir-Practitioner.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Practitioner</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1127,7 +1127,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1690,7 +1690,7 @@
     <t>practitioner-qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/practitioner-qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/practitioner-qualification}
 </t>
   </si>
   <si>
@@ -1745,7 +1745,7 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1814,7 +1814,7 @@
     <t>communication-proficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/communication-proficiency}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/communication-proficiency}
 </t>
   </si>
   <si>
@@ -2222,7 +2222,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="97.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="96.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
